--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4278922.920832897</v>
+        <v>4277687.557829491</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285192</v>
+        <v>53890.85515285207</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>22.90612036710875</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.59326375081517</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>65.88553544856782</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>68.21015448122992</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.197928092376224</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>51.50265029947249</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>198.7050131246913</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.9272112248127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,49 +1303,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.7186635429859</v>
+        <v>246.583943984484</v>
       </c>
       <c r="C11" t="n">
         <v>274.2577136505129</v>
@@ -1382,13 +1382,13 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G11" t="n">
-        <v>311.1894437111496</v>
+        <v>322.0772286298366</v>
       </c>
       <c r="H11" t="n">
         <v>225.8230740502261</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>225.8230740502261</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981487</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278532</v>
+        <v>67.63697916278535</v>
       </c>
       <c r="T14" t="n">
         <v>122.4049485207083</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.8168020614426</v>
+        <v>88.81680206144263</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813314</v>
+        <v>76.23164297813317</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771766</v>
+        <v>57.60029489771769</v>
       </c>
       <c r="E16" t="n">
-        <v>55.41878452607448</v>
+        <v>55.4187845260745</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243655</v>
+        <v>54.40586990243658</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022731</v>
+        <v>75.98432295022734</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506712</v>
+        <v>62.39685106506715</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282535</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443825</v>
+        <v>41.69774406443828</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
@@ -1859,10 +1859,10 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H17" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.2379533359147</v>
+        <v>31.23795333591471</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888515</v>
+        <v>64.62799785888517</v>
       </c>
       <c r="T17" t="n">
         <v>119.3959672168081</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V17" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X17" t="n">
         <v>275.7069412540742</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754243</v>
+        <v>85.80782075754244</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423297</v>
+        <v>73.22266167423298</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381749</v>
+        <v>54.5913135938175</v>
       </c>
       <c r="E19" t="n">
-        <v>52.4098032221743</v>
+        <v>52.40980322217432</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853638</v>
+        <v>51.39688859853639</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632714</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116695</v>
+        <v>59.38786976116697</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892517</v>
+        <v>31.60985935892519</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053808</v>
+        <v>38.68876276053809</v>
       </c>
       <c r="S19" t="n">
         <v>112.7136760890195</v>
       </c>
       <c r="T19" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U19" t="n">
         <v>192.2407892982195</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W19" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X19" t="n">
         <v>131.6854959646423</v>
@@ -2099,7 +2099,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591471</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888517</v>
+        <v>64.62799785888635</v>
       </c>
       <c r="T20" t="n">
         <v>119.3959672168081</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754244</v>
+        <v>85.80782075754247</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423298</v>
+        <v>73.22266167423301</v>
       </c>
       <c r="D22" t="n">
-        <v>54.5913135938175</v>
+        <v>54.59131359381753</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217432</v>
+        <v>52.40980322217435</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853639</v>
+        <v>51.39688859853642</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632715</v>
+        <v>72.97534164632718</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116697</v>
+        <v>59.387869761167</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892519</v>
+        <v>31.60985935892522</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053809</v>
+        <v>38.68876276053812</v>
       </c>
       <c r="S22" t="n">
         <v>112.7136760890195</v>
@@ -2305,7 +2305,7 @@
         <v>131.6854959646423</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.5604939276999</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888517</v>
+        <v>64.62799785888519</v>
       </c>
       <c r="T23" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U23" t="n">
         <v>157.1446670222574</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S24" t="n">
         <v>149.7163148892172</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754244</v>
+        <v>85.80782075754247</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423298</v>
+        <v>73.22266167423301</v>
       </c>
       <c r="D25" t="n">
-        <v>54.5913135938175</v>
+        <v>54.59131359381753</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217432</v>
+        <v>52.40980322217435</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853639</v>
+        <v>51.39688859853642</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632715</v>
+        <v>72.97534164632718</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116697</v>
+        <v>59.387869761167</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6098593589252</v>
+        <v>31.60985935892522</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.6887627605381</v>
+        <v>38.68876276053812</v>
       </c>
       <c r="S25" t="n">
         <v>112.7136760890195</v>
@@ -2542,7 +2542,7 @@
         <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.5604939276999</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C26" t="n">
         <v>274.2577136505129</v>
@@ -2561,19 +2561,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E26" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F26" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G26" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H26" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.2469346398149</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S26" t="n">
-        <v>22.50225960428294</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T26" t="n">
-        <v>122.4049485207083</v>
+        <v>77.27022896220593</v>
       </c>
       <c r="U26" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V26" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W26" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X26" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y26" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S27" t="n">
         <v>149.7163148892172</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.8168020614426</v>
+        <v>88.81680206144267</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813314</v>
+        <v>76.23164297813321</v>
       </c>
       <c r="D28" t="n">
-        <v>57.60029489771766</v>
+        <v>57.60029489771773</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607448</v>
+        <v>55.41878452607455</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243655</v>
+        <v>54.40586990243662</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022731</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506714</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282535</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443825</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T28" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U28" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W28" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X28" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C29" t="n">
         <v>274.2577136505129</v>
@@ -2798,19 +2798,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E29" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F29" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G29" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H29" t="n">
-        <v>225.8230740502262</v>
+        <v>214.9352891315385</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981492</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S29" t="n">
-        <v>22.50225960428294</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T29" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V29" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W29" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X29" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S30" t="n">
         <v>149.7163148892172</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144266</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813319</v>
       </c>
       <c r="D31" t="n">
-        <v>57.60029489771769</v>
+        <v>57.60029489771772</v>
       </c>
       <c r="E31" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607453</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243661</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022737</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506717</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282541</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
@@ -3007,16 +3007,16 @@
         <v>195.2497706021197</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W31" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X31" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C32" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D32" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F32" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G32" t="n">
         <v>319.0682473259365</v>
@@ -3047,7 +3047,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.62799785888518</v>
+        <v>64.62799785888524</v>
       </c>
       <c r="T32" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U32" t="n">
         <v>157.1446670222574</v>
@@ -3092,10 +3092,10 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S33" t="n">
         <v>149.7163148892172</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C34" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D34" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T34" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V34" t="n">
         <v>158.1134838994332</v>
@@ -3250,7 +3250,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X34" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y34" t="n">
         <v>124.5604939277</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C35" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D35" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G35" t="n">
         <v>319.0682473259365</v>
@@ -3284,7 +3284,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.62799785888518</v>
+        <v>64.62799785888524</v>
       </c>
       <c r="T35" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U35" t="n">
         <v>157.1446670222574</v>
@@ -3329,10 +3329,10 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S36" t="n">
         <v>149.7163148892172</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C37" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S37" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T37" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V37" t="n">
         <v>158.1134838994332</v>
@@ -3487,7 +3487,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y37" t="n">
         <v>124.5604939277</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C38" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259364</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H38" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591471</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888514</v>
+        <v>64.62799785888524</v>
       </c>
       <c r="T38" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V38" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S39" t="n">
         <v>149.7163148892172</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.80782075754242</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423295</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381747</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217429</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853636</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632712</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116694</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892517</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053808</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939276999</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C41" t="n">
         <v>274.2577136505129</v>
@@ -3746,19 +3746,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E41" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F41" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G41" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H41" t="n">
-        <v>180.6883544917233</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I41" t="n">
-        <v>34.24693463981492</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.63697916278537</v>
+        <v>22.50225960428249</v>
       </c>
       <c r="T41" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U41" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V41" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W41" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X41" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y41" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S42" t="n">
         <v>149.7163148892172</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144267</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813321</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771769</v>
+        <v>57.60029489771773</v>
       </c>
       <c r="E43" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607455</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243662</v>
       </c>
       <c r="G43" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U43" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W43" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X43" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>180.6883544917232</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
         <v>34.24693463981494</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.63697916278538</v>
+        <v>22.50225960428204</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U44" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V44" t="n">
         <v>236.7370803496403</v>
@@ -4043,7 +4043,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y44" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S45" t="n">
         <v>149.7163148892172</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.81680206144264</v>
+        <v>88.81680206144267</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813318</v>
+        <v>76.23164297813307</v>
       </c>
       <c r="D46" t="n">
-        <v>57.6002948977177</v>
+        <v>57.60029489771773</v>
       </c>
       <c r="E46" t="n">
-        <v>55.41878452607452</v>
+        <v>55.41878452607455</v>
       </c>
       <c r="F46" t="n">
-        <v>54.40586990243659</v>
+        <v>54.40586990243662</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506718</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I46" t="n">
-        <v>34.61884066282539</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443832</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T46" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U46" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W46" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X46" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>510.5393129786837</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>517.4848137278872</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.0604900729671</v>
+        <v>729.290772582924</v>
       </c>
       <c r="C3" t="n">
-        <v>279.0604900729671</v>
+        <v>554.837743301797</v>
       </c>
       <c r="D3" t="n">
-        <v>130.1260804117159</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E3" t="n">
-        <v>130.1260804117159</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>130.1260804117159</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>130.1260804117159</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>897.506109602992</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>897.506109602992</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>897.506109602992</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>897.506109602992</v>
       </c>
       <c r="X3" t="n">
-        <v>655.0361258579891</v>
+        <v>897.506109602992</v>
       </c>
       <c r="Y3" t="n">
-        <v>447.2758270930352</v>
+        <v>897.506109602992</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.6327430815143</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C6" t="n">
-        <v>170.1797138003873</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>21.24530413913604</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>912.03427642026</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>704.1827762147271</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.8480801015824</v>
+        <v>496.4224774497732</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.6514970160482</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>753.253405673024</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4847,7 +4847,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>784.1002736601483</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4993,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.635817725124</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D11" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4229196418228</v>
+        <v>977.0135454584913</v>
       </c>
       <c r="F11" t="n">
-        <v>612.3715382062503</v>
+        <v>657.9621640229188</v>
       </c>
       <c r="G11" t="n">
-        <v>298.0387667808466</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H11" t="n">
-        <v>69.93465157859801</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I11" t="n">
         <v>69.93465157859801</v>
@@ -5051,10 +5051,10 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P11" t="n">
         <v>3270.319423338377</v>
@@ -5121,19 +5121,19 @@
         <v>69.93465157859801</v>
       </c>
       <c r="K12" t="n">
-        <v>122.530944066273</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L12" t="n">
-        <v>606.7076331071712</v>
+        <v>501.3962758991993</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.698213719151</v>
+        <v>1118.386856511179</v>
       </c>
       <c r="N12" t="n">
-        <v>1872.725712474615</v>
+        <v>1767.414355266643</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.533108956335</v>
+        <v>2294.732040562832</v>
       </c>
       <c r="P12" t="n">
         <v>2445.748972877462</v>
@@ -5188,34 +5188,34 @@
         <v>244.6821411524564</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885897</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H13" t="n">
-        <v>104.9031775006431</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I13" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959409</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K13" t="n">
-        <v>319.108691483089</v>
+        <v>319.1086914830888</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889147</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594313</v>
+        <v>865.6171716594306</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O13" t="n">
-        <v>1402.802877545183</v>
+        <v>1402.802877545182</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.929321817166</v>
+        <v>1608.929321817165</v>
       </c>
       <c r="Q13" t="n">
         <v>1695.926483912368</v>
@@ -5236,10 +5236,10 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665445</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225622</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y13" t="n">
         <v>580.5138526330671</v>
@@ -5267,7 +5267,7 @@
         <v>657.9621640229188</v>
       </c>
       <c r="G14" t="n">
-        <v>332.6316300533869</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H14" t="n">
         <v>104.5275148511383</v>
@@ -5276,10 +5276,10 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733933</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L14" t="n">
         <v>1150.588225603151</v>
@@ -5291,7 +5291,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P14" t="n">
         <v>3270.319423338377</v>
@@ -5355,25 +5355,25 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J15" t="n">
-        <v>130.1292435802857</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K15" t="n">
-        <v>444.5461207104134</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L15" t="n">
-        <v>928.7228097513116</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M15" t="n">
-        <v>1545.713390363291</v>
+        <v>1595.395061194641</v>
       </c>
       <c r="N15" t="n">
-        <v>1720.191938518637</v>
+        <v>1769.873609349988</v>
       </c>
       <c r="O15" t="n">
-        <v>2247.509623814826</v>
+        <v>2297.191294646176</v>
       </c>
       <c r="P15" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.59575085658</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568623</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829904</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246898</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963317</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F16" t="n">
         <v>244.6821411524564</v>
@@ -5437,10 +5437,10 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M16" t="n">
         <v>865.6171716594311</v>
@@ -5449,7 +5449,7 @@
         <v>1149.619034811413</v>
       </c>
       <c r="O16" t="n">
-        <v>1402.802877545183</v>
+        <v>1402.802877545182</v>
       </c>
       <c r="P16" t="n">
         <v>1608.929321817165</v>
@@ -5464,7 +5464,7 @@
         <v>1536.915977389783</v>
       </c>
       <c r="T16" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U16" t="n">
         <v>1205.659547501322</v>
@@ -5473,13 +5473,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665443</v>
+        <v>845.4269359665445</v>
       </c>
       <c r="X16" t="n">
-        <v>709.371908422562</v>
+        <v>709.3719084225622</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330669</v>
+        <v>580.5138526330671</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D17" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407136</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F17" t="n">
-        <v>648.8440388595857</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444983</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H17" t="n">
         <v>101.4881397966937</v>
@@ -5513,10 +5513,10 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L17" t="n">
         <v>1150.588225603151</v>
@@ -5543,22 +5543,22 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V17" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W17" t="n">
         <v>2658.234053236255</v>
       </c>
       <c r="X17" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y17" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J18" t="n">
-        <v>69.93465157859801</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K18" t="n">
-        <v>122.530944066273</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L18" t="n">
-        <v>606.7076331071712</v>
+        <v>611.2725387322373</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.698213719151</v>
+        <v>1228.263119344217</v>
       </c>
       <c r="N18" t="n">
-        <v>1872.725712474615</v>
+        <v>1877.290618099681</v>
       </c>
       <c r="O18" t="n">
-        <v>2400.043397770803</v>
+        <v>2404.608303395869</v>
       </c>
       <c r="P18" t="n">
         <v>2653.725487735952</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757499</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563227</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D19" t="n">
         <v>340.4192602524667</v>
@@ -5671,25 +5671,25 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J19" t="n">
-        <v>69.93465157859801</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K19" t="n">
-        <v>255.0116051566071</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L19" t="n">
-        <v>521.341371253294</v>
+        <v>518.9351077634935</v>
       </c>
       <c r="M19" t="n">
-        <v>807.4778683146719</v>
+        <v>805.0716048248714</v>
       </c>
       <c r="N19" t="n">
-        <v>1094.458622957515</v>
+        <v>1092.052359467715</v>
       </c>
       <c r="O19" t="n">
-        <v>1350.621357182146</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P19" t="n">
-        <v>1559.72669294499</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q19" t="n">
         <v>1647.296483041253</v>
@@ -5698,10 +5698,10 @@
         <v>1608.216924697275</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T19" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U19" t="n">
         <v>1169.187046847986</v>
@@ -5710,13 +5710,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220981</v>
+        <v>815.0331854220982</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325604</v>
+        <v>682.0175329325605</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.19885219751</v>
+        <v>556.1988521975101</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D20" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E20" t="n">
-        <v>964.8560452407132</v>
+        <v>964.856045240713</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595852</v>
+        <v>648.8440388595851</v>
       </c>
       <c r="G20" t="n">
         <v>326.5528799444978</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I20" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593002</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L20" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M20" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N20" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O20" t="n">
         <v>2865.989524423014</v>
@@ -5771,31 +5771,31 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q20" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R20" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S20" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V20" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W20" t="n">
         <v>2658.234053236255</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y20" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H21" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I21" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J21" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K21" t="n">
-        <v>494.2277915417638</v>
+        <v>444.4307380557673</v>
       </c>
       <c r="L21" t="n">
-        <v>978.404480582662</v>
+        <v>561.4754852462409</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.7368755048</v>
+        <v>1178.46606585822</v>
       </c>
       <c r="N21" t="n">
-        <v>1512.215423660147</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.533108956335</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P21" t="n">
         <v>2445.748972877462</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757501</v>
+        <v>469.5242857757503</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563228</v>
+        <v>395.562001256323</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524667</v>
+        <v>340.4192602524669</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785533</v>
+        <v>287.4800650785534</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5640159891225</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I22" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J22" t="n">
         <v>139.989520886802</v>
@@ -5914,13 +5914,13 @@
         <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>591.396240561498</v>
+        <v>518.9351077634944</v>
       </c>
       <c r="M22" t="n">
-        <v>877.5327376228759</v>
+        <v>805.0716048248723</v>
       </c>
       <c r="N22" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O22" t="n">
         <v>1348.215093692346</v>
@@ -5929,10 +5929,10 @@
         <v>1557.32042945519</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S22" t="n">
         <v>1494.364726627559</v>
@@ -5941,19 +5941,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220982</v>
+        <v>815.0331854220987</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325605</v>
+        <v>682.0175329325609</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975101</v>
+        <v>556.1988521975104</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407132</v>
+        <v>964.8560452407137</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595857</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444977</v>
+        <v>326.5528799444983</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I23" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K23" t="n">
-        <v>625.1936695733937</v>
+        <v>625.193669573393</v>
       </c>
       <c r="L23" t="n">
         <v>1150.588225603151</v>
@@ -6002,34 +6002,34 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O23" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P23" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q23" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R23" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S23" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T23" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U23" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V23" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W23" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X23" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y23" t="n">
         <v>2084.576759816323</v>
@@ -6063,28 +6063,28 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I24" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J24" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K24" t="n">
         <v>384.3515287087258</v>
       </c>
       <c r="L24" t="n">
-        <v>868.5282177496239</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M24" t="n">
         <v>1485.518798361603</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.997346516949</v>
+        <v>1659.99734651695</v>
       </c>
       <c r="O24" t="n">
         <v>2187.315031813138</v>
       </c>
       <c r="P24" t="n">
-        <v>2593.530895734265</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q24" t="n">
         <v>2664.59575085658</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757501</v>
+        <v>469.5242857757503</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563228</v>
+        <v>395.562001256323</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524669</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785533</v>
+        <v>287.4800650785534</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G25" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H25" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I25" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J25" t="n">
         <v>139.989520886802</v>
@@ -6154,7 +6154,7 @@
         <v>591.396240561498</v>
       </c>
       <c r="M25" t="n">
-        <v>877.5327376228757</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N25" t="n">
         <v>1164.513492265719</v>
@@ -6166,10 +6166,10 @@
         <v>1629.781562253194</v>
       </c>
       <c r="Q25" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R25" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S25" t="n">
         <v>1494.364726627559</v>
@@ -6178,19 +6178,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U25" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220983</v>
+        <v>815.0331854220987</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325606</v>
+        <v>682.0175329325609</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975104</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6209,64 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E26" t="n">
-        <v>977.0135454584913</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F26" t="n">
-        <v>657.9621640229188</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G26" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M26" t="n">
         <v>1751.797447352347</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O26" t="n">
         <v>2865.989524423013</v>
       </c>
       <c r="P26" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q26" t="n">
         <v>3496.7325789299</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S26" t="n">
-        <v>3474.003023774058</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T26" t="n">
-        <v>3350.361661631929</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U26" t="n">
-        <v>3188.590299686315</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V26" t="n">
-        <v>2949.46193569678</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W26" t="n">
-        <v>2688.627803780701</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X26" t="n">
-        <v>2407.096568873656</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y26" t="n">
         <v>2108.89176025188</v>
@@ -6297,28 +6297,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J27" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K27" t="n">
-        <v>494.2277915417637</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L27" t="n">
-        <v>636.1210403766655</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.111620988645</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N27" t="n">
-        <v>1902.139119744109</v>
+        <v>1659.99734651695</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.533108956335</v>
+        <v>2187.315031813138</v>
       </c>
       <c r="P27" t="n">
         <v>2445.748972877462</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568625</v>
+        <v>490.799911156862</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829907</v>
+        <v>413.7982515829901</v>
       </c>
       <c r="D28" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246894</v>
       </c>
       <c r="E28" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963312</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524558</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885898</v>
       </c>
       <c r="H28" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006435</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J28" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959407</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830889</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L28" t="n">
         <v>582.4595660889142</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594313</v>
+        <v>865.6171716594306</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
@@ -6403,7 +6403,7 @@
         <v>1608.929321817165</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
         <v>1653.807550513945</v>
@@ -6421,13 +6421,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W28" t="n">
-        <v>845.4269359665448</v>
+        <v>845.4269359665441</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225618</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330667</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C29" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D29" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E29" t="n">
-        <v>977.0135454584913</v>
+        <v>931.4229196418223</v>
       </c>
       <c r="F29" t="n">
-        <v>657.9621640229188</v>
+        <v>612.3715382062497</v>
       </c>
       <c r="G29" t="n">
-        <v>332.631630053387</v>
+        <v>287.0410042367178</v>
       </c>
       <c r="H29" t="n">
-        <v>104.5275148511383</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="I29" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L29" t="n">
         <v>1150.588225603151</v>
@@ -6479,34 +6479,34 @@
         <v>2865.989524423013</v>
       </c>
       <c r="P29" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q29" t="n">
         <v>3496.7325789299</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S29" t="n">
-        <v>3474.003023774058</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T29" t="n">
-        <v>3350.361661631929</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U29" t="n">
-        <v>3188.590299686315</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V29" t="n">
-        <v>2949.46193569678</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W29" t="n">
-        <v>2688.627803780701</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X29" t="n">
-        <v>2407.096568873656</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y29" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H30" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I30" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J30" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K30" t="n">
         <v>384.3515287087258</v>
       </c>
       <c r="L30" t="n">
-        <v>769.4520001047316</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M30" t="n">
-        <v>1386.442580716711</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N30" t="n">
-        <v>2035.470079472175</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O30" t="n">
-        <v>2562.787764768364</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P30" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q30" t="n">
         <v>2664.59575085658</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.799911156862</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C31" t="n">
-        <v>413.7982515829901</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6161355246894</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6375652963313</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F31" t="n">
-        <v>244.682141152456</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G31" t="n">
-        <v>167.93029978859</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H31" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I31" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J31" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959404</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830883</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.459566088914</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594309</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6643,28 +6643,28 @@
         <v>1695.926483912367</v>
       </c>
       <c r="R31" t="n">
-        <v>1653.807550513944</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S31" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T31" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U31" t="n">
-        <v>1205.659547501321</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.909582649469</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4269359665437</v>
+        <v>845.4269359665445</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225614</v>
+        <v>709.3719084225622</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330667</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C32" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.96219962875</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430479</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407141</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595852</v>
+        <v>648.8440388595859</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444983</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I32" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J32" t="n">
         <v>243.8279252593011</v>
       </c>
       <c r="K32" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L32" t="n">
         <v>1150.588225603151</v>
@@ -6719,31 +6719,31 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q32" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S32" t="n">
         <v>3431.451773011835</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W32" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816324</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I33" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J33" t="n">
-        <v>69.93465157859801</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K33" t="n">
-        <v>384.3515287087258</v>
+        <v>285.2753110638333</v>
       </c>
       <c r="L33" t="n">
-        <v>868.5282177496239</v>
+        <v>769.4520001047315</v>
       </c>
       <c r="M33" t="n">
-        <v>1485.518798361603</v>
+        <v>1386.442580716711</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.997346516949</v>
+        <v>2035.470079472175</v>
       </c>
       <c r="O33" t="n">
-        <v>2187.315031813138</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P33" t="n">
-        <v>2593.530895734265</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.59575085658</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I34" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J34" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K34" t="n">
-        <v>325.066474464811</v>
+        <v>252.6053416668082</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614977</v>
+        <v>518.9351077634949</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228755</v>
+        <v>805.0716048248726</v>
       </c>
       <c r="N34" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O34" t="n">
-        <v>1420.67622649035</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P34" t="n">
-        <v>1629.781562253194</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S34" t="n">
         <v>1494.364726627559</v>
@@ -6889,19 +6889,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C35" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430478</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595848</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444974</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J35" t="n">
         <v>243.8279252593011</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L35" t="n">
         <v>1150.588225603151</v>
@@ -6956,31 +6956,31 @@
         <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R35" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U35" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V35" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W35" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X35" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>119.1052045322124</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J36" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K36" t="n">
-        <v>285.2753110638335</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L36" t="n">
-        <v>769.4520001047316</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M36" t="n">
-        <v>1386.442580716711</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N36" t="n">
-        <v>2035.470079472175</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O36" t="n">
-        <v>2562.787764768364</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P36" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q36" t="n">
         <v>2664.59575085658</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E37" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G37" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I37" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J37" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K37" t="n">
-        <v>325.066474464811</v>
+        <v>252.6053416668082</v>
       </c>
       <c r="L37" t="n">
-        <v>591.3962405614977</v>
+        <v>518.9351077634949</v>
       </c>
       <c r="M37" t="n">
-        <v>877.5327376228755</v>
+        <v>805.0716048248726</v>
       </c>
       <c r="N37" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O37" t="n">
-        <v>1420.67622649035</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
-        <v>1629.781562253194</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S37" t="n">
         <v>1494.364726627559</v>
@@ -7126,19 +7126,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U37" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C38" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D38" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595851</v>
+        <v>648.8440388595848</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444974</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I38" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L38" t="n">
         <v>1150.588225603151</v>
@@ -7187,37 +7187,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P38" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q38" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R38" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S38" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T38" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U38" t="n">
-        <v>3152.11779903298</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V38" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W38" t="n">
         <v>2658.234053236255</v>
       </c>
       <c r="X38" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y38" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H39" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I39" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J39" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K39" t="n">
         <v>384.3515287087258</v>
       </c>
       <c r="L39" t="n">
-        <v>868.5282177496239</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M39" t="n">
         <v>1485.518798361603</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.997346516949</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O39" t="n">
-        <v>2187.315031813138</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P39" t="n">
-        <v>2593.530895734265</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q39" t="n">
         <v>2664.59575085658</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.5242857757498</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563226</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D40" t="n">
-        <v>340.4192602524666</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4800650785531</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5640159891225</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797011</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I40" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J40" t="n">
-        <v>139.989520886802</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0664744648111</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>591.396240561498</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M40" t="n">
-        <v>805.0716048248709</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N40" t="n">
-        <v>1092.052359467714</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O40" t="n">
-        <v>1348.215093692345</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.320429455189</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220979</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X40" t="n">
-        <v>682.0175329325602</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975098</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.635817725123</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C41" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D41" t="n">
-        <v>1225.276648886031</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E41" t="n">
-        <v>931.4229196418219</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F41" t="n">
-        <v>612.3715382062494</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G41" t="n">
-        <v>287.0410042367175</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L41" t="n">
         <v>1150.588225603151</v>
@@ -7424,37 +7424,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O41" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P41" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q41" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R41" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S41" t="n">
-        <v>3428.412397957389</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T41" t="n">
-        <v>3304.771035815259</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U41" t="n">
-        <v>3142.999673869646</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V41" t="n">
-        <v>2903.87130988011</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.037177964031</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.505943056986</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y41" t="n">
-        <v>2063.30113443521</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H42" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I42" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J42" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K42" t="n">
-        <v>285.2753110638335</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L42" t="n">
-        <v>769.4520001047316</v>
+        <v>606.7076331071712</v>
       </c>
       <c r="M42" t="n">
-        <v>1386.442580716711</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N42" t="n">
-        <v>2035.470079472175</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O42" t="n">
-        <v>2562.787764768364</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P42" t="n">
-        <v>2653.725487735952</v>
+        <v>2490.981120738392</v>
       </c>
       <c r="Q42" t="n">
         <v>2664.59575085658</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829906</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6161355246899</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E43" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F43" t="n">
         <v>244.6821411524565</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H43" t="n">
         <v>104.9031775006438</v>
       </c>
       <c r="I43" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J43" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K43" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830884</v>
       </c>
       <c r="L43" t="n">
-        <v>582.4595660889144</v>
+        <v>582.459566088914</v>
       </c>
       <c r="M43" t="n">
-        <v>865.6171716594311</v>
+        <v>865.6171716594306</v>
       </c>
       <c r="N43" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O43" t="n">
-        <v>1402.802877545183</v>
+        <v>1402.802877545182</v>
       </c>
       <c r="P43" t="n">
-        <v>1608.929321817166</v>
+        <v>1608.929321817165</v>
       </c>
       <c r="Q43" t="n">
         <v>1695.926483912368</v>
@@ -7600,19 +7600,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U43" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V43" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665451</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225627</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y43" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1768.635817725123</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D44" t="n">
-        <v>1225.276648886031</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E44" t="n">
-        <v>931.4229196418219</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F44" t="n">
-        <v>612.3715382062493</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G44" t="n">
-        <v>287.0410042367173</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H44" t="n">
         <v>104.5275148511383</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593004</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733929</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M44" t="n">
         <v>1751.797447352347</v>
@@ -7664,7 +7664,7 @@
         <v>2865.989524423013</v>
       </c>
       <c r="P44" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q44" t="n">
         <v>3496.7325789299</v>
@@ -7673,25 +7673,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.412397957389</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
-        <v>3304.771035815259</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U44" t="n">
-        <v>3142.999673869646</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V44" t="n">
-        <v>2903.87130988011</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W44" t="n">
-        <v>2643.037177964031</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.505943056986</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.30113443521</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J45" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K45" t="n">
-        <v>359.9208661942581</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L45" t="n">
-        <v>844.0975552351562</v>
+        <v>606.7076331071712</v>
       </c>
       <c r="M45" t="n">
-        <v>1461.088135847135</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N45" t="n">
-        <v>2110.1156346026</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O45" t="n">
-        <v>2247.509623814826</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P45" t="n">
-        <v>2653.725487735952</v>
+        <v>2490.981120738392</v>
       </c>
       <c r="Q45" t="n">
         <v>2664.59575085658</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829906</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246899</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963318</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J46" t="n">
-        <v>137.0106293959406</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
-        <v>319.1086914830885</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L46" t="n">
         <v>582.4595660889142</v>
@@ -7846,10 +7846,10 @@
         <v>845.4269359665448</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225623</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,10 +8769,10 @@
         <v>15.10491126663305</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>29.71051239342836</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>60.68607004751649</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.90752945015595</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>58.20197501383507</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>164.3882494924849</v>
+        <v>159.7772337095901</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>214.1651829863194</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>205.4442701238978</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>169.1880990876106</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.80261818352321</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>25.09949661053361</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>169.1880990876106</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>270.763357783366</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>169.1880990876108</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>15.10491126663308</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>53.40212541870937</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.80261818352321</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K36" t="n">
-        <v>164.3882494924854</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>169.1880990876108</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.1880990876108</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.80261818352321</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K42" t="n">
-        <v>164.3882494924854</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>164.388249492485</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>15.10491126663308</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7878001292779</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>164.388249492485</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>45.13471955850193</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.88778491868698</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.2469346398149</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.1347195585024</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>45.13471955850241</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.88778491868766</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.13471955850243</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.13471955850281</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.13471955850291</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.13471955850301</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.13471955850336</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621287.3167871285</v>
+        <v>621287.3167871283</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>817449.0461874263</v>
+        <v>817449.0461874262</v>
       </c>
       <c r="F2" t="n">
         <v>817449.0461874264</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="J2" t="n">
         <v>817449.0461874263</v>
       </c>
       <c r="K2" t="n">
-        <v>817449.0461874264</v>
+        <v>817449.0461874262</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.769864283</v>
       </c>
       <c r="O2" t="n">
         <v>817449.0461874263</v>
       </c>
       <c r="P2" t="n">
-        <v>817449.0461874263</v>
+        <v>817449.0461874279</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>703589.292039426</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120137</v>
+        <v>2407.185043120148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523818</v>
+        <v>133464.9000523819</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240274</v>
+        <v>4814.370086240262</v>
       </c>
       <c r="M3" t="n">
         <v>157788.2115544436</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015543</v>
+        <v>67997.77241015545</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>101289.2992069228</v>
       </c>
       <c r="F4" t="n">
-        <v>101289.2992069228</v>
+        <v>101289.2992069227</v>
       </c>
       <c r="G4" t="n">
         <v>103324.7488677448</v>
@@ -26442,7 +26442,7 @@
         <v>101289.2992069228</v>
       </c>
       <c r="K4" t="n">
-        <v>101289.2992069227</v>
+        <v>101289.2992069228</v>
       </c>
       <c r="L4" t="n">
         <v>103324.7488677448</v>
@@ -26451,13 +26451,13 @@
         <v>103324.7488677448</v>
       </c>
       <c r="N4" t="n">
-        <v>103324.7488677449</v>
+        <v>103324.7488677448</v>
       </c>
       <c r="O4" t="n">
-        <v>101289.2992069228</v>
+        <v>101289.2992069227</v>
       </c>
       <c r="P4" t="n">
-        <v>101289.2992069228</v>
+        <v>101289.2992069227</v>
       </c>
     </row>
     <row r="5">
@@ -26488,22 +26488,22 @@
         <v>73040.92341322344</v>
       </c>
       <c r="I5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="J5" t="n">
-        <v>72787.96136398584</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="K5" t="n">
-        <v>72787.96136398584</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="L5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="M5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="N5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="O5" t="n">
         <v>72787.96136398584</v>
@@ -26525,43 +26525,43 @@
         <v>485267.8623967197</v>
       </c>
       <c r="D6" t="n">
-        <v>485267.8623967195</v>
+        <v>485267.8623967199</v>
       </c>
       <c r="E6" t="n">
-        <v>-60217.50642290834</v>
+        <v>-60226.48823210059</v>
       </c>
       <c r="F6" t="n">
-        <v>643371.7856165178</v>
+        <v>643362.8038073257</v>
       </c>
       <c r="G6" t="n">
-        <v>642268.9125401952</v>
+        <v>642268.9125401947</v>
       </c>
       <c r="H6" t="n">
-        <v>644676.0975833151</v>
+        <v>644676.097583315</v>
       </c>
       <c r="I6" t="n">
-        <v>644676.097583315</v>
+        <v>644676.0975833149</v>
       </c>
       <c r="J6" t="n">
-        <v>509906.8855641359</v>
+        <v>509897.9037549437</v>
       </c>
       <c r="K6" t="n">
-        <v>643371.7856165178</v>
+        <v>643362.8038073254</v>
       </c>
       <c r="L6" t="n">
-        <v>639861.7274970746</v>
+        <v>639861.7274970749</v>
       </c>
       <c r="M6" t="n">
-        <v>486887.8860288713</v>
+        <v>486887.8860288712</v>
       </c>
       <c r="N6" t="n">
-        <v>644676.0975833153</v>
+        <v>644676.0975833148</v>
       </c>
       <c r="O6" t="n">
-        <v>575374.0132063623</v>
+        <v>575365.0313971702</v>
       </c>
       <c r="P6" t="n">
-        <v>643371.7856165178</v>
+        <v>643362.8038073273</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>91.01517812049467</v>
       </c>
       <c r="F2" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J2" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="L2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N2" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P2" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="3">
@@ -26756,28 +26756,28 @@
         <v>549.8197777449312</v>
       </c>
       <c r="I3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="J3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="K3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="L3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="M3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="N3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="O3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="P3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449312</v>
       </c>
     </row>
     <row r="4">
@@ -26805,31 +26805,31 @@
         <v>874.1831447324751</v>
       </c>
       <c r="H4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="I4" t="n">
+        <v>874.1831447324752</v>
+      </c>
+      <c r="J4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="K4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="L4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="M4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="N4" t="n">
+        <v>874.1831447324753</v>
+      </c>
+      <c r="O4" t="n">
+        <v>874.1831447324752</v>
+      </c>
+      <c r="P4" t="n">
         <v>874.1831447324751</v>
-      </c>
-      <c r="I4" t="n">
-        <v>874.1831447324751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>874.1831447324749</v>
-      </c>
-      <c r="K4" t="n">
-        <v>874.1831447324749</v>
-      </c>
-      <c r="L4" t="n">
-        <v>874.1831447324751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>874.1831447324751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>874.1831447324749</v>
-      </c>
-      <c r="O4" t="n">
-        <v>874.1831447324749</v>
-      </c>
-      <c r="P4" t="n">
-        <v>874.1831447324749</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>91.01517812049467</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900171</v>
+        <v>3.008981303900185</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659451</v>
+        <v>88.00619681659447</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800342</v>
+        <v>6.017962607800328</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.9972155126943</v>
+        <v>84.99721551269431</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>91.01517812049467</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900171</v>
+        <v>3.008981303900185</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659451</v>
+        <v>88.00619681659447</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>392.3966171480263</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>287.4893848675705</v>
       </c>
     </row>
     <row r="3">
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.64218048568129</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>134.2791932462538</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>259.542103988905</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>88.19870475903885</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>48.65518385317065</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>155.9780284959916</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.0713248386154</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.75548455249168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="K16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="L16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="M16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="N16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049394</v>
       </c>
       <c r="O16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049372</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="R16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="S16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J19" t="n">
-        <v>23.26166517368377</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439487</v>
+        <v>20.83109599206716</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.59359024277774</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439487</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439485</v>
+        <v>20.8310959920681</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="O22" t="n">
-        <v>20.83109599206708</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.83109599206765</v>
+        <v>20.83109599206808</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439485</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654741</v>
       </c>
       <c r="S26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="L28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="M28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="N28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="O28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="R28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="S28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.0151781204947</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654741</v>
       </c>
       <c r="S29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="K31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="L31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="M31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="N31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="O31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="P31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="S31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439484</v>
+        <v>23.26166517368377</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439484</v>
+        <v>91.59359024277971</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="P34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.83109599206787</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439484</v>
+        <v>23.26166517368377</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439484</v>
+        <v>91.59359024277971</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83109599206787</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="L40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83109599206668</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="P40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.02415942439488</v>
+        <v>20.83109599206876</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="L46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="M46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="N46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="O46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="R46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="S46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
   </sheetData>
@@ -32701,43 +32701,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H23" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I23" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K23" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L23" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M23" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N23" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O23" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P23" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q23" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R23" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S23" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T23" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U23" t="n">
         <v>0.1768264611842993</v>
@@ -32792,13 +32792,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L24" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M24" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N24" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O24" t="n">
         <v>281.3780517295215</v>
@@ -32807,19 +32807,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R24" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S24" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T24" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H25" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I25" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J25" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K25" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L25" t="n">
         <v>147.4057810695181</v>
@@ -32886,19 +32886,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R25" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S25" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T25" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,43 +32938,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H26" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I26" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K26" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L26" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M26" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N26" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O26" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P26" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q26" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R26" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S26" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T26" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U26" t="n">
         <v>0.1768264611842993</v>
@@ -33029,13 +33029,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L27" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M27" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N27" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O27" t="n">
         <v>281.3780517295215</v>
@@ -33044,19 +33044,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R27" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S27" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T27" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H28" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I28" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J28" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L28" t="n">
         <v>147.4057810695181</v>
@@ -33123,19 +33123,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R28" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S28" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T28" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,43 +33175,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H29" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I29" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K29" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L29" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M29" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N29" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O29" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P29" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q29" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R29" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S29" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T29" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U29" t="n">
         <v>0.1768264611842993</v>
@@ -33266,13 +33266,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L30" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M30" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N30" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O30" t="n">
         <v>281.3780517295215</v>
@@ -33281,19 +33281,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R30" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S30" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T30" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H31" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I31" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J31" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L31" t="n">
         <v>147.4057810695181</v>
@@ -33360,19 +33360,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R31" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S31" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T31" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,43 +33412,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H32" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I32" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K32" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L32" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M32" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N32" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O32" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P32" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q32" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R32" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S32" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T32" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U32" t="n">
         <v>0.1768264611842993</v>
@@ -33503,13 +33503,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L33" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M33" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N33" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O33" t="n">
         <v>281.3780517295215</v>
@@ -33518,19 +33518,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R33" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S33" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T33" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H34" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I34" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J34" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L34" t="n">
         <v>147.4057810695181</v>
@@ -33597,19 +33597,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R34" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S34" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T34" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,43 +33649,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H35" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I35" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K35" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L35" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M35" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N35" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O35" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P35" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q35" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R35" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S35" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T35" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U35" t="n">
         <v>0.1768264611842993</v>
@@ -33740,13 +33740,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L36" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M36" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N36" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O36" t="n">
         <v>281.3780517295215</v>
@@ -33755,19 +33755,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R36" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S36" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T36" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H37" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I37" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J37" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K37" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L37" t="n">
         <v>147.4057810695181</v>
@@ -33834,19 +33834,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R37" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S37" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T37" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,43 +33886,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H38" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I38" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K38" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L38" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M38" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N38" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O38" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P38" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q38" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R38" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S38" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T38" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U38" t="n">
         <v>0.1768264611842993</v>
@@ -33977,13 +33977,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L39" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M39" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N39" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O39" t="n">
         <v>281.3780517295215</v>
@@ -33992,19 +33992,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R39" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S39" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T39" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H40" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I40" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J40" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K40" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L40" t="n">
         <v>147.4057810695181</v>
@@ -34071,19 +34071,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R40" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S40" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T40" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,43 +34123,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H41" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I41" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K41" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L41" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M41" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N41" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O41" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P41" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q41" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R41" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S41" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T41" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U41" t="n">
         <v>0.1768264611842993</v>
@@ -34214,13 +34214,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L42" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M42" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N42" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O42" t="n">
         <v>281.3780517295215</v>
@@ -34229,19 +34229,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R42" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S42" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T42" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H43" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I43" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J43" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K43" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L43" t="n">
         <v>147.4057810695181</v>
@@ -34308,19 +34308,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R43" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S43" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T43" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,43 +34360,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H44" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I44" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K44" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L44" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M44" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N44" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O44" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P44" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q44" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R44" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S44" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T44" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U44" t="n">
         <v>0.1768264611842993</v>
@@ -34451,13 +34451,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L45" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M45" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N45" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O45" t="n">
         <v>281.3780517295215</v>
@@ -34466,19 +34466,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R45" t="n">
-        <v>73.42687522412498</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S45" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T45" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H46" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I46" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J46" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K46" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L46" t="n">
         <v>147.4057810695181</v>
@@ -34545,19 +34545,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R46" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S46" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T46" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>53.12756816936869</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M12" t="n">
         <v>623.2228086989691</v>
@@ -35501,10 +35501,10 @@
         <v>655.5833320762266</v>
       </c>
       <c r="O12" t="n">
-        <v>168.4923196785055</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3190544657845</v>
+        <v>152.5423558733638</v>
       </c>
       <c r="Q12" t="n">
         <v>221.0573514940585</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.8026181835229</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K15" t="n">
         <v>317.5928051819473</v>
@@ -35741,10 +35741,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P15" t="n">
-        <v>410.3190544657845</v>
+        <v>150.0582608396824</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.98006375820944</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681093</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K16" t="n">
         <v>183.9374364516646</v>
       </c>
       <c r="L16" t="n">
-        <v>266.010984450329</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M16" t="n">
         <v>286.0177834045622</v>
       </c>
       <c r="N16" t="n">
-        <v>286.8705688403861</v>
+        <v>286.8705688403854</v>
       </c>
       <c r="O16" t="n">
         <v>255.7412552866359</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2085295676587</v>
+        <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828493</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
-        <v>53.12756816936869</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L18" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M18" t="n">
         <v>623.2228086989691</v>
@@ -35978,7 +35978,7 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P18" t="n">
-        <v>256.2445353183322</v>
+        <v>251.6335195354374</v>
       </c>
       <c r="Q18" t="n">
         <v>10.98006375820944</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>70.76249425071109</v>
       </c>
       <c r="K19" t="n">
         <v>186.9464177555648</v>
       </c>
       <c r="L19" t="n">
-        <v>269.0199657542291</v>
+        <v>195.8269023219014</v>
       </c>
       <c r="M19" t="n">
         <v>289.0267647084625</v>
@@ -36060,7 +36060,7 @@
         <v>211.2175108715599</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.45433343056797</v>
+        <v>90.88490261218509</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K21" t="n">
-        <v>317.5928051819473</v>
+        <v>267.2927511556881</v>
       </c>
       <c r="L21" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M21" t="n">
-        <v>362.962015072867</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N21" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O21" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P21" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q21" t="n">
         <v>221.0573514940585</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071109</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L22" t="n">
-        <v>269.0199657542291</v>
+        <v>195.8269023219024</v>
       </c>
       <c r="M22" t="n">
         <v>289.0267647084625</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O22" t="n">
-        <v>185.5571731582083</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P22" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218509</v>
+        <v>90.88490261218506</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M23" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N23" t="n">
         <v>602.3287050062372</v>
@@ -36373,7 +36373,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P23" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q23" t="n">
         <v>228.7001571631554</v>
@@ -36440,22 +36440,22 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L24" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N24" t="n">
-        <v>176.240957732673</v>
+        <v>176.2409577326731</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P24" t="n">
-        <v>410.3190544657844</v>
+        <v>261.0443849134579</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.78268194173262</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071107</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K25" t="n">
         <v>186.9464177555647</v>
@@ -36522,10 +36522,10 @@
         <v>269.0199657542291</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N25" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O25" t="n">
         <v>258.750236590536</v>
@@ -36534,7 +36534,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.69183917985785</v>
+        <v>17.69183917985831</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M26" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N26" t="n">
         <v>602.3287050062372</v>
@@ -36610,7 +36610,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P26" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q26" t="n">
         <v>228.7001571631554</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>317.5928051819473</v>
       </c>
       <c r="L27" t="n">
-        <v>143.3265139746483</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M27" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N27" t="n">
-        <v>655.5833320762265</v>
+        <v>176.2409577326731</v>
       </c>
       <c r="O27" t="n">
-        <v>138.781807285077</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P27" t="n">
-        <v>410.3190544657844</v>
+        <v>261.0443849134579</v>
       </c>
       <c r="Q27" t="n">
         <v>221.0573514940585</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681091</v>
+        <v>67.75351294681086</v>
       </c>
       <c r="K28" t="n">
         <v>183.9374364516646</v>
@@ -36765,13 +36765,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O28" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P28" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.8759213082849</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M29" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N29" t="n">
         <v>602.3287050062372</v>
@@ -36847,7 +36847,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P29" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q29" t="n">
         <v>228.7001571631554</v>
@@ -36914,22 +36914,22 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L30" t="n">
-        <v>388.9903751474807</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M30" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N30" t="n">
-        <v>655.5833320762265</v>
+        <v>345.4290568202839</v>
       </c>
       <c r="O30" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>91.85628582584724</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.98006375820941</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681089</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K31" t="n">
         <v>183.9374364516646</v>
@@ -37075,7 +37075,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M32" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N32" t="n">
         <v>602.3287050062372</v>
@@ -37084,7 +37084,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P32" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q32" t="n">
         <v>228.7001571631554</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K33" t="n">
-        <v>317.5928051819473</v>
+        <v>106.5296935880781</v>
       </c>
       <c r="L33" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M33" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N33" t="n">
-        <v>176.240957732673</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O33" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P33" t="n">
-        <v>410.3190544657844</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.78268194173262</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071106</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555647</v>
+        <v>184.5158485739496</v>
       </c>
       <c r="L34" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N34" t="n">
         <v>289.8795501442862</v>
@@ -37245,7 +37245,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.69183917985808</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M35" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N35" t="n">
         <v>602.3287050062372</v>
@@ -37321,7 +37321,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P35" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q35" t="n">
         <v>228.7001571631554</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>217.515817661854</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L36" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N36" t="n">
-        <v>655.5833320762265</v>
+        <v>345.4290568202839</v>
       </c>
       <c r="O36" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P36" t="n">
-        <v>91.85628582584724</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.98006375820941</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071106</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>186.9464177555647</v>
+        <v>184.5158485739496</v>
       </c>
       <c r="L37" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N37" t="n">
         <v>289.8795501442862</v>
@@ -37482,7 +37482,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.69183917985808</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M38" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N38" t="n">
         <v>602.3287050062372</v>
@@ -37558,7 +37558,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P38" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q38" t="n">
         <v>228.7001571631554</v>
@@ -37625,22 +37625,22 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L39" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N39" t="n">
-        <v>176.240957732673</v>
+        <v>345.4290568202839</v>
       </c>
       <c r="O39" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P39" t="n">
-        <v>410.3190544657844</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.78268194173262</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.7624942507111</v>
+        <v>70.76249425071101</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M40" t="n">
-        <v>215.8337012761342</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O40" t="n">
-        <v>258.7502365905361</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P40" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.88490261218509</v>
+        <v>17.691839179859</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946494</v>
       </c>
       <c r="K41" t="n">
         <v>385.2179235495884</v>
@@ -37786,7 +37786,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M41" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N41" t="n">
         <v>602.3287050062372</v>
@@ -37795,7 +37795,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P41" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q41" t="n">
         <v>228.7001571631554</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>217.515817661854</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L42" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M42" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N42" t="n">
-        <v>655.5833320762265</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P42" t="n">
-        <v>91.85628582584724</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.98006375820941</v>
+        <v>175.3683132506945</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.75351294681089</v>
+        <v>67.75351294681086</v>
       </c>
       <c r="K43" t="n">
         <v>183.9374364516646</v>
@@ -37950,13 +37950,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O43" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P43" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M44" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N44" t="n">
         <v>602.3287050062372</v>
@@ -38032,7 +38032,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P44" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q44" t="n">
         <v>228.7001571631554</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>292.9153682986465</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L45" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M45" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N45" t="n">
-        <v>655.5833320762265</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O45" t="n">
-        <v>138.781807285077</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P45" t="n">
-        <v>410.3190544657844</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.98006375820941</v>
+        <v>175.3683132506945</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681086</v>
       </c>
       <c r="K46" t="n">
         <v>183.9374364516646</v>
